--- a/code/java-web-demo/src/test/resources/挖掘机_20170529.xlsx
+++ b/code/java-web-demo/src/test/resources/挖掘机_20170529.xlsx
@@ -4,36 +4,38 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="20" r:id="rId1"/>
-    <sheet name="四化建 (3)" sheetId="24" r:id="rId2"/>
-    <sheet name="四化建" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId4"/>
-    <sheet name="步行街" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="22" r:id="rId6"/>
-    <sheet name="南湖公园" sheetId="21" r:id="rId7"/>
-    <sheet name="南湖公园 (2)" sheetId="23" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId9"/>
+    <sheet name="维修保养" sheetId="25" r:id="rId2"/>
+    <sheet name="四化建 (3)" sheetId="24" r:id="rId3"/>
+    <sheet name="四化建" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId5"/>
+    <sheet name="步行街" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="22" r:id="rId7"/>
+    <sheet name="南湖公园" sheetId="21" r:id="rId8"/>
+    <sheet name="南湖公园 (2)" sheetId="23" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$A$1:$J$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">步行街!$A$1:$J$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">南湖公园!$A$1:$K$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'南湖公园 (2)'!$A$1:$K$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">四化建!$A$1:$H$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'四化建 (3)'!$A$1:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$A$1:$L$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">步行街!$A$1:$J$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">南湖公园!$A$1:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'南湖公园 (2)'!$A$1:$K$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">四化建!$A$1:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'四化建 (3)'!$A$1:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">维修保养!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="105">
   <si>
     <t>装车</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,6 +443,10 @@
   </si>
   <si>
     <t>进场费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖车费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1330,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M153" sqref="M153"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2732,7 +2738,9 @@
       <c r="E46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="G46" s="13">
         <f t="shared" si="1"/>
         <v>1232</v>
@@ -6341,7 +6349,1805 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="2.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="8">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="3">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>42793</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>300</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="13">
+        <f>C2</f>
+        <v>300</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>300</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>42793</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>170</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="13">
+        <f>G2+C3</f>
+        <v>470</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>170</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>42793</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>95</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G55" si="0">G3+C4</f>
+        <v>565</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>95</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>42793</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>145</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>145</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>42793</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>830</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>120</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>42793</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>42793</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>120</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>970</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>120</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>42793</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>4570</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>42794</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>160</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>4730</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>160</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>42796</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>4770</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>42799</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>8470</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>42799</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>8570</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>100</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>42821</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>510</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>9080</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>510</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>42821</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>9100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>42827</v>
+      </c>
+      <c r="C16" s="3">
+        <v>500</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>500</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>42827</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>130</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>9730</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>130</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>42830</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>110</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>9840</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>110</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>42833</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>220</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="0"/>
+        <v>10060</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>220</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>42833</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
+        <v>200</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="0"/>
+        <v>10260</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>42833</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <v>220</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="0"/>
+        <v>10480</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>220</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>42833</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <v>170</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="0"/>
+        <v>10650</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>170</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>42833</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <v>430</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="0"/>
+        <v>11080</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>430</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>42833</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>200</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="0"/>
+        <v>11280</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>42833</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>180</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="0"/>
+        <v>11460</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>180</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>42837</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <v>1050</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="0"/>
+        <v>12510</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3">
+        <v>150</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>42837</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
+        <v>200</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="0"/>
+        <v>12710</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
+        <v>650</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="0"/>
+        <v>13360</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>650</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="0"/>
+        <v>15360</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
+        <v>580</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="0"/>
+        <v>15940</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>580</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <v>1350</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="0"/>
+        <v>17290</v>
+      </c>
+      <c r="H31" s="3">
+        <v>9</v>
+      </c>
+      <c r="I31" s="3">
+        <v>150</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3">
+        <v>380</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="0"/>
+        <v>17670</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>380</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
+        <v>380</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="0"/>
+        <v>18050</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>380</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
+        <v>1480</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="0"/>
+        <v>19530</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1480</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
+        <v>70</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="0"/>
+        <v>19600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>70</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
+        <v>160</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="0"/>
+        <v>19760</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+      <c r="I36" s="3">
+        <v>80</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3">
+        <v>280</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="0"/>
+        <v>20040</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>280</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3">
+        <v>360</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="0"/>
+        <v>20400</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>360</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>42838</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
+        <v>-380</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="0"/>
+        <v>20020</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>-380</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>42841</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3">
+        <v>250</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="13">
+        <f t="shared" si="0"/>
+        <v>20270</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>250</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>42845</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>3060</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="0"/>
+        <v>23330</v>
+      </c>
+      <c r="H41" s="3">
+        <v>9</v>
+      </c>
+      <c r="I41" s="3">
+        <v>340</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>42845</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3">
+        <v>360</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="0"/>
+        <v>23690</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>360</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>42845</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="0"/>
+        <v>23750</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>60</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <v>42845</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3">
+        <v>340</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="0"/>
+        <v>24090</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>170</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>42845</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3">
+        <v>100</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" si="0"/>
+        <v>24190</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>42845</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" si="0"/>
+        <v>27590</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>42871</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3">
+        <v>960</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="0"/>
+        <v>28550</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>320</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
+        <v>42871</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3">
+        <v>100</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" si="0"/>
+        <v>28650</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>42871</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3">
+        <v>400</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" si="0"/>
+        <v>29050</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3">
+        <v>400</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
+        <v>42871</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3">
+        <v>50</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="0"/>
+        <v>29100</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3">
+        <v>50</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
+        <v>42871</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3">
+        <v>80</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="0"/>
+        <v>29180</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3">
+        <v>80</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
+        <v>42871</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3">
+        <v>80</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" si="0"/>
+        <v>29260</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3">
+        <v>80</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
+        <v>42872</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3">
+        <v>30</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" si="0"/>
+        <v>29290</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3">
+        <v>30</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
+        <v>42872</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3">
+        <v>180</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" si="0"/>
+        <v>29470</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3">
+        <v>180</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
+        <v>42872</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3">
+        <v>57</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="13">
+        <f t="shared" si="0"/>
+        <v>29527</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3">
+        <v>57</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -6818,7 +8624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
@@ -7830,7 +9636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7848,7 +9654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
@@ -10843,7 +12649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F7"/>
   <sheetViews>
@@ -10934,7 +12740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -11626,7 +13432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -12352,62 +14158,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="2.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="8">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="8">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="3">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>